--- a/biology/Zoologie/Bufotes_balearicus/Bufotes_balearicus.xlsx
+++ b/biology/Zoologie/Bufotes_balearicus/Bufotes_balearicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bufotes balearicus est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bufotes balearicus est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 330 m d'altitude en Europe du Sud[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 330 m d'altitude en Europe du Sud :
 dans la plupart de l'Italie dont la Sardaigne et la partie Est de la Sicile ;
 en Corse en France ;
 aux Îles Baléares en Espagne.
-La présence de cette espèce aux Baléares est probablement due à une introduction humaine très ancienne[2].
+La présence de cette espèce aux Baléares est probablement due à une introduction humaine très ancienne.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était considérée comme synonyme de Bufotes viridis, le Crapaud vert, jusqu'en 2006[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était considérée comme synonyme de Bufotes viridis, le Crapaud vert, jusqu'en 2006
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, les Îles Baléares.
 </t>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger, 1880 : Neue Krötenvarietät von den Balearen. Zoologischer Anzeiger, vol. 3, p. 642-643 (texte intégral).</t>
         </is>
